--- a/mysite/DB4_Column.xlsx
+++ b/mysite/DB4_Column.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SCG\PycharmProjects\django-wms-skk\mysite\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D985265-F546-40D3-9396-9D260191B441}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA33EF66-B5CA-46F7-AF28-0050839B2D5E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dataset" sheetId="3" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="151">
   <si>
     <t>column_id</t>
   </si>
@@ -47,336 +47,6 @@
     <t>storage_for</t>
   </si>
   <si>
-    <t>X01A</t>
-  </si>
-  <si>
-    <t>X01B</t>
-  </si>
-  <si>
-    <t>X02A</t>
-  </si>
-  <si>
-    <t>X02B</t>
-  </si>
-  <si>
-    <t>X03A</t>
-  </si>
-  <si>
-    <t>X03B</t>
-  </si>
-  <si>
-    <t>X04A</t>
-  </si>
-  <si>
-    <t>X04B</t>
-  </si>
-  <si>
-    <t>X05A</t>
-  </si>
-  <si>
-    <t>X05B</t>
-  </si>
-  <si>
-    <t>X06A</t>
-  </si>
-  <si>
-    <t>X06B</t>
-  </si>
-  <si>
-    <t>X07A</t>
-  </si>
-  <si>
-    <t>X07B</t>
-  </si>
-  <si>
-    <t>X08A</t>
-  </si>
-  <si>
-    <t>X08B</t>
-  </si>
-  <si>
-    <t>X09A</t>
-  </si>
-  <si>
-    <t>X09B</t>
-  </si>
-  <si>
-    <t>X10A</t>
-  </si>
-  <si>
-    <t>X10B</t>
-  </si>
-  <si>
-    <t>X11A</t>
-  </si>
-  <si>
-    <t>X11B</t>
-  </si>
-  <si>
-    <t>X12A</t>
-  </si>
-  <si>
-    <t>X12B</t>
-  </si>
-  <si>
-    <t>X13A</t>
-  </si>
-  <si>
-    <t>X13B</t>
-  </si>
-  <si>
-    <t>X14A</t>
-  </si>
-  <si>
-    <t>X14B</t>
-  </si>
-  <si>
-    <t>X15A</t>
-  </si>
-  <si>
-    <t>X15B</t>
-  </si>
-  <si>
-    <t>X16A</t>
-  </si>
-  <si>
-    <t>X16B</t>
-  </si>
-  <si>
-    <t>X17A</t>
-  </si>
-  <si>
-    <t>X17B</t>
-  </si>
-  <si>
-    <t>X18A</t>
-  </si>
-  <si>
-    <t>X18B</t>
-  </si>
-  <si>
-    <t>X19A</t>
-  </si>
-  <si>
-    <t>X19B</t>
-  </si>
-  <si>
-    <t>X20A</t>
-  </si>
-  <si>
-    <t>X20B</t>
-  </si>
-  <si>
-    <t>X21A</t>
-  </si>
-  <si>
-    <t>X21B</t>
-  </si>
-  <si>
-    <t>X22A</t>
-  </si>
-  <si>
-    <t>X22B</t>
-  </si>
-  <si>
-    <t>X23A</t>
-  </si>
-  <si>
-    <t>X23B</t>
-  </si>
-  <si>
-    <t>X24A</t>
-  </si>
-  <si>
-    <t>X24B</t>
-  </si>
-  <si>
-    <t>X25A</t>
-  </si>
-  <si>
-    <t>X25B</t>
-  </si>
-  <si>
-    <t>X26A</t>
-  </si>
-  <si>
-    <t>X26B</t>
-  </si>
-  <si>
-    <t>X27A</t>
-  </si>
-  <si>
-    <t>X27B</t>
-  </si>
-  <si>
-    <t>X28A</t>
-  </si>
-  <si>
-    <t>X28B</t>
-  </si>
-  <si>
-    <t>X29A</t>
-  </si>
-  <si>
-    <t>X29B</t>
-  </si>
-  <si>
-    <t>X30A</t>
-  </si>
-  <si>
-    <t>X30B</t>
-  </si>
-  <si>
-    <t>X31A</t>
-  </si>
-  <si>
-    <t>X31B</t>
-  </si>
-  <si>
-    <t>X32A</t>
-  </si>
-  <si>
-    <t>X32B</t>
-  </si>
-  <si>
-    <t>X33A</t>
-  </si>
-  <si>
-    <t>X33B</t>
-  </si>
-  <si>
-    <t>X34A</t>
-  </si>
-  <si>
-    <t>X34B</t>
-  </si>
-  <si>
-    <t>Y01A</t>
-  </si>
-  <si>
-    <t>Y01B</t>
-  </si>
-  <si>
-    <t>Y02A</t>
-  </si>
-  <si>
-    <t>Y02B</t>
-  </si>
-  <si>
-    <t>Y03A</t>
-  </si>
-  <si>
-    <t>Y03B</t>
-  </si>
-  <si>
-    <t>Y04A</t>
-  </si>
-  <si>
-    <t>Y04B</t>
-  </si>
-  <si>
-    <t>Y05A</t>
-  </si>
-  <si>
-    <t>Y05B</t>
-  </si>
-  <si>
-    <t>Y06A</t>
-  </si>
-  <si>
-    <t>Y06B</t>
-  </si>
-  <si>
-    <t>Y07A</t>
-  </si>
-  <si>
-    <t>Y07B</t>
-  </si>
-  <si>
-    <t>Y08A</t>
-  </si>
-  <si>
-    <t>Y08B</t>
-  </si>
-  <si>
-    <t>Y09A</t>
-  </si>
-  <si>
-    <t>Y09B</t>
-  </si>
-  <si>
-    <t>Y10A</t>
-  </si>
-  <si>
-    <t>Y10B</t>
-  </si>
-  <si>
-    <t>Y11A</t>
-  </si>
-  <si>
-    <t>Y11B</t>
-  </si>
-  <si>
-    <t>Y12A</t>
-  </si>
-  <si>
-    <t>Y12B</t>
-  </si>
-  <si>
-    <t>Y13A</t>
-  </si>
-  <si>
-    <t>Y13B</t>
-  </si>
-  <si>
-    <t>Y14A</t>
-  </si>
-  <si>
-    <t>Y14B</t>
-  </si>
-  <si>
-    <t>Y15A</t>
-  </si>
-  <si>
-    <t>Y15B</t>
-  </si>
-  <si>
-    <t>Y16A</t>
-  </si>
-  <si>
-    <t>Y16B</t>
-  </si>
-  <si>
-    <t>Y17A</t>
-  </si>
-  <si>
-    <t>Y17B</t>
-  </si>
-  <si>
-    <t>Y18A</t>
-  </si>
-  <si>
-    <t>Y18B</t>
-  </si>
-  <si>
-    <t>Y19A</t>
-  </si>
-  <si>
-    <t>Y19B</t>
-  </si>
-  <si>
-    <t>Y20A</t>
-  </si>
-  <si>
-    <t>Y20B</t>
-  </si>
-  <si>
-    <t>Y21A</t>
-  </si>
-  <si>
-    <t>Y21B</t>
-  </si>
-  <si>
     <t>Super Cement SKK</t>
   </si>
   <si>
@@ -459,13 +129,367 @@
   </si>
   <si>
     <t>Buffer1</t>
+  </si>
+  <si>
+    <t>A01</t>
+  </si>
+  <si>
+    <t>A02</t>
+  </si>
+  <si>
+    <t>A03</t>
+  </si>
+  <si>
+    <t>A04</t>
+  </si>
+  <si>
+    <t>A05</t>
+  </si>
+  <si>
+    <t>A06</t>
+  </si>
+  <si>
+    <t>A07</t>
+  </si>
+  <si>
+    <t>A08</t>
+  </si>
+  <si>
+    <t>A09</t>
+  </si>
+  <si>
+    <t>A10</t>
+  </si>
+  <si>
+    <t>A11</t>
+  </si>
+  <si>
+    <t>A12</t>
+  </si>
+  <si>
+    <t>A13</t>
+  </si>
+  <si>
+    <t>A14</t>
+  </si>
+  <si>
+    <t>A15</t>
+  </si>
+  <si>
+    <t>A16</t>
+  </si>
+  <si>
+    <t>A17</t>
+  </si>
+  <si>
+    <t>A18</t>
+  </si>
+  <si>
+    <t>A19</t>
+  </si>
+  <si>
+    <t>A20</t>
+  </si>
+  <si>
+    <t>A21</t>
+  </si>
+  <si>
+    <t>A22</t>
+  </si>
+  <si>
+    <t>A23</t>
+  </si>
+  <si>
+    <t>A24</t>
+  </si>
+  <si>
+    <t>A25</t>
+  </si>
+  <si>
+    <t>A26</t>
+  </si>
+  <si>
+    <t>A27</t>
+  </si>
+  <si>
+    <t>A28</t>
+  </si>
+  <si>
+    <t>A29</t>
+  </si>
+  <si>
+    <t>A30</t>
+  </si>
+  <si>
+    <t>A31</t>
+  </si>
+  <si>
+    <t>A32</t>
+  </si>
+  <si>
+    <t>A33</t>
+  </si>
+  <si>
+    <t>A34</t>
+  </si>
+  <si>
+    <t>A35</t>
+  </si>
+  <si>
+    <t>A36</t>
+  </si>
+  <si>
+    <t>A37</t>
+  </si>
+  <si>
+    <t>A38</t>
+  </si>
+  <si>
+    <t>A39</t>
+  </si>
+  <si>
+    <t>A40</t>
+  </si>
+  <si>
+    <t>A41</t>
+  </si>
+  <si>
+    <t>A42</t>
+  </si>
+  <si>
+    <t>A43</t>
+  </si>
+  <si>
+    <t>A44</t>
+  </si>
+  <si>
+    <t>A45</t>
+  </si>
+  <si>
+    <t>A46</t>
+  </si>
+  <si>
+    <t>A47</t>
+  </si>
+  <si>
+    <t>A48</t>
+  </si>
+  <si>
+    <t>A49</t>
+  </si>
+  <si>
+    <t>A50</t>
+  </si>
+  <si>
+    <t>A51</t>
+  </si>
+  <si>
+    <t>A52</t>
+  </si>
+  <si>
+    <t>A53</t>
+  </si>
+  <si>
+    <t>A54</t>
+  </si>
+  <si>
+    <t>A55</t>
+  </si>
+  <si>
+    <t>A56</t>
+  </si>
+  <si>
+    <t>A57</t>
+  </si>
+  <si>
+    <t>A58</t>
+  </si>
+  <si>
+    <t>A59</t>
+  </si>
+  <si>
+    <t>A60</t>
+  </si>
+  <si>
+    <t>A61</t>
+  </si>
+  <si>
+    <t>A62</t>
+  </si>
+  <si>
+    <t>A63</t>
+  </si>
+  <si>
+    <t>A64</t>
+  </si>
+  <si>
+    <t>A65</t>
+  </si>
+  <si>
+    <t>A66</t>
+  </si>
+  <si>
+    <t>A67</t>
+  </si>
+  <si>
+    <t>A68</t>
+  </si>
+  <si>
+    <t>B01</t>
+  </si>
+  <si>
+    <t>B02</t>
+  </si>
+  <si>
+    <t>B03</t>
+  </si>
+  <si>
+    <t>B04</t>
+  </si>
+  <si>
+    <t>B05</t>
+  </si>
+  <si>
+    <t>B06</t>
+  </si>
+  <si>
+    <t>B07</t>
+  </si>
+  <si>
+    <t>B08</t>
+  </si>
+  <si>
+    <t>B09</t>
+  </si>
+  <si>
+    <t>B10</t>
+  </si>
+  <si>
+    <t>B11</t>
+  </si>
+  <si>
+    <t>B12</t>
+  </si>
+  <si>
+    <t>B13</t>
+  </si>
+  <si>
+    <t>B14</t>
+  </si>
+  <si>
+    <t>B15</t>
+  </si>
+  <si>
+    <t>B16</t>
+  </si>
+  <si>
+    <t>B17</t>
+  </si>
+  <si>
+    <t>B18</t>
+  </si>
+  <si>
+    <t>B19</t>
+  </si>
+  <si>
+    <t>B20</t>
+  </si>
+  <si>
+    <t>B21</t>
+  </si>
+  <si>
+    <t>B22</t>
+  </si>
+  <si>
+    <t>B23</t>
+  </si>
+  <si>
+    <t>B24</t>
+  </si>
+  <si>
+    <t>B25</t>
+  </si>
+  <si>
+    <t>B26</t>
+  </si>
+  <si>
+    <t>B27</t>
+  </si>
+  <si>
+    <t>B28</t>
+  </si>
+  <si>
+    <t>B29</t>
+  </si>
+  <si>
+    <t>B30</t>
+  </si>
+  <si>
+    <t>B31</t>
+  </si>
+  <si>
+    <t>B32</t>
+  </si>
+  <si>
+    <t>B33</t>
+  </si>
+  <si>
+    <t>B34</t>
+  </si>
+  <si>
+    <t>B35</t>
+  </si>
+  <si>
+    <t>B36</t>
+  </si>
+  <si>
+    <t>B37</t>
+  </si>
+  <si>
+    <t>B38</t>
+  </si>
+  <si>
+    <t>B39</t>
+  </si>
+  <si>
+    <t>B40</t>
+  </si>
+  <si>
+    <t>B41</t>
+  </si>
+  <si>
+    <t>B42</t>
+  </si>
+  <si>
+    <t>A69</t>
+  </si>
+  <si>
+    <t>A70</t>
+  </si>
+  <si>
+    <t>A71</t>
+  </si>
+  <si>
+    <t>A72</t>
+  </si>
+  <si>
+    <t>A73</t>
+  </si>
+  <si>
+    <t>A74</t>
+  </si>
+  <si>
+    <t>A75</t>
+  </si>
+  <si>
+    <t>A76</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -478,6 +502,12 @@
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -520,12 +550,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
@@ -830,10 +857,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF62E362-70C7-4EA7-AF77-8AB7762B3C3F}">
-  <dimension ref="A1:H111"/>
+  <dimension ref="A1:E119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="E76" sqref="E76"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -845,7 +872,7 @@
     <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -862,1224 +889,1306 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>46</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>47</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13">
-        <v>1</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15">
-        <v>1</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B16">
-        <v>1</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="G16" s="2"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="B17">
         <v>1</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>118</v>
+      <c r="C17" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="B18">
         <v>1</v>
       </c>
-      <c r="C18" s="3" t="s">
-        <v>118</v>
+      <c r="C18" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="B19">
         <v>1</v>
       </c>
-      <c r="C19" s="3" t="s">
-        <v>118</v>
+      <c r="C19" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="B20">
         <v>1</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>118</v>
+      <c r="C20" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="B21">
         <v>1</v>
       </c>
-      <c r="C21" s="3" t="s">
-        <v>119</v>
+      <c r="C21" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="B22">
         <v>1</v>
       </c>
-      <c r="C22" s="3" t="s">
-        <v>120</v>
+      <c r="C22" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="B23">
         <v>1</v>
       </c>
-      <c r="C23" s="3" t="s">
-        <v>120</v>
+      <c r="C23" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="B24">
         <v>1</v>
       </c>
-      <c r="C24" s="3" t="s">
-        <v>121</v>
+      <c r="C24" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>28</v>
+        <v>56</v>
       </c>
       <c r="B25">
         <v>1</v>
       </c>
-      <c r="C25" s="3" t="s">
-        <v>121</v>
+      <c r="C25" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>29</v>
+        <v>57</v>
       </c>
       <c r="B26">
         <v>1</v>
       </c>
-      <c r="C26" s="4" t="s">
-        <v>122</v>
+      <c r="C26" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="B27">
         <v>1</v>
       </c>
-      <c r="C27" s="4" t="s">
-        <v>122</v>
+      <c r="C27" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>31</v>
+        <v>59</v>
       </c>
       <c r="B28">
         <v>1</v>
       </c>
-      <c r="C28" s="4" t="s">
-        <v>122</v>
+      <c r="C28" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="B29">
         <v>1</v>
       </c>
-      <c r="C29" s="4" t="s">
-        <v>122</v>
+      <c r="C29" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>33</v>
+        <v>61</v>
       </c>
       <c r="B30">
         <v>1</v>
       </c>
-      <c r="C30" s="3" t="s">
-        <v>123</v>
+      <c r="C30" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>34</v>
+        <v>62</v>
       </c>
       <c r="B31">
         <v>1</v>
       </c>
-      <c r="C31" s="3" t="s">
-        <v>123</v>
+      <c r="C31" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>35</v>
+        <v>63</v>
       </c>
       <c r="B32">
         <v>1</v>
       </c>
-      <c r="C32" s="3" t="s">
-        <v>123</v>
+      <c r="C32" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>36</v>
+        <v>64</v>
       </c>
       <c r="B33">
         <v>1</v>
       </c>
-      <c r="C33" s="3" t="s">
-        <v>123</v>
+      <c r="C33" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>37</v>
+        <v>65</v>
       </c>
       <c r="B34">
         <v>1</v>
       </c>
-      <c r="C34" s="3" t="s">
-        <v>124</v>
+      <c r="C34" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>38</v>
+        <v>66</v>
       </c>
       <c r="B35">
         <v>1</v>
       </c>
-      <c r="C35" s="3" t="s">
-        <v>124</v>
+      <c r="C35" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="B36">
         <v>1</v>
       </c>
-      <c r="C36" s="3" t="s">
-        <v>124</v>
+      <c r="C36" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="B37">
         <v>1</v>
       </c>
-      <c r="C37" s="3" t="s">
-        <v>124</v>
+      <c r="C37" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="B38">
         <v>1</v>
       </c>
-      <c r="C38" s="3" t="s">
-        <v>125</v>
+      <c r="C38" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>42</v>
+        <v>70</v>
       </c>
       <c r="B39">
         <v>1</v>
       </c>
-      <c r="C39" s="3" t="s">
-        <v>125</v>
+      <c r="C39" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>43</v>
+        <v>71</v>
       </c>
       <c r="B40">
         <v>1</v>
       </c>
-      <c r="C40" s="3" t="s">
-        <v>126</v>
+      <c r="C40" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>44</v>
+        <v>72</v>
       </c>
       <c r="B41">
         <v>1</v>
       </c>
-      <c r="C41" s="3" t="s">
-        <v>126</v>
+      <c r="C41" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>45</v>
+        <v>73</v>
       </c>
       <c r="B42">
         <v>1</v>
       </c>
-      <c r="C42" s="3" t="s">
-        <v>127</v>
+      <c r="C42" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>46</v>
+        <v>74</v>
       </c>
       <c r="B43">
         <v>1</v>
       </c>
-      <c r="C43" s="3" t="s">
-        <v>127</v>
+      <c r="C43" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>47</v>
+        <v>75</v>
       </c>
       <c r="B44">
         <v>1</v>
       </c>
-      <c r="C44" s="3" t="s">
-        <v>128</v>
+      <c r="C44" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>48</v>
+        <v>76</v>
       </c>
       <c r="B45">
         <v>1</v>
       </c>
-      <c r="C45" s="3" t="s">
-        <v>129</v>
+      <c r="C45" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>49</v>
+        <v>77</v>
       </c>
       <c r="B46">
         <v>1</v>
       </c>
-      <c r="C46" s="3" t="s">
-        <v>130</v>
+      <c r="C46" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>50</v>
+        <v>78</v>
       </c>
       <c r="B47">
         <v>1</v>
       </c>
-      <c r="C47" s="3" t="s">
-        <v>131</v>
+      <c r="C47" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>51</v>
+        <v>79</v>
       </c>
       <c r="B48">
         <v>1</v>
       </c>
-      <c r="C48" s="3" t="s">
-        <v>132</v>
+      <c r="C48" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>52</v>
+        <v>80</v>
       </c>
       <c r="B49">
         <v>1</v>
       </c>
-      <c r="C49" s="3" t="s">
-        <v>132</v>
+      <c r="C49" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>53</v>
+        <v>81</v>
       </c>
       <c r="B50">
         <v>1</v>
       </c>
-      <c r="C50" s="3" t="s">
-        <v>133</v>
+      <c r="C50" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>54</v>
+        <v>82</v>
       </c>
       <c r="B51">
         <v>1</v>
       </c>
-      <c r="C51" s="3" t="s">
-        <v>133</v>
+      <c r="C51" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>55</v>
+        <v>83</v>
       </c>
       <c r="B52">
         <v>1</v>
       </c>
-      <c r="C52" s="3" t="s">
-        <v>134</v>
+      <c r="C52" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>56</v>
+        <v>84</v>
       </c>
       <c r="B53">
         <v>1</v>
       </c>
-      <c r="C53" s="3" t="s">
-        <v>134</v>
+      <c r="C53" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>57</v>
+        <v>85</v>
       </c>
       <c r="B54">
         <v>1</v>
       </c>
-      <c r="C54" s="3" t="s">
-        <v>135</v>
+      <c r="C54" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>58</v>
+        <v>86</v>
       </c>
       <c r="B55">
         <v>1</v>
       </c>
-      <c r="C55" s="3" t="s">
-        <v>135</v>
+      <c r="C55" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>59</v>
+        <v>87</v>
       </c>
       <c r="B56">
         <v>1</v>
       </c>
-      <c r="C56" s="3" t="s">
-        <v>136</v>
+      <c r="C56" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="B57">
         <v>1</v>
       </c>
-      <c r="C57" s="3" t="s">
-        <v>137</v>
+      <c r="C57" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>61</v>
+        <v>89</v>
       </c>
       <c r="B58">
         <v>1</v>
       </c>
-      <c r="C58" s="3" t="s">
-        <v>138</v>
+      <c r="C58" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>62</v>
+        <v>90</v>
       </c>
       <c r="B59">
         <v>1</v>
       </c>
-      <c r="C59" s="3" t="s">
-        <v>139</v>
+      <c r="C59" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>63</v>
+        <v>91</v>
       </c>
       <c r="B60">
         <v>1</v>
       </c>
-      <c r="C60" s="3" t="s">
-        <v>140</v>
+      <c r="C60" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>64</v>
+        <v>92</v>
       </c>
       <c r="B61">
         <v>1</v>
       </c>
-      <c r="C61" s="3" t="s">
-        <v>141</v>
+      <c r="C61" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>65</v>
+        <v>93</v>
       </c>
       <c r="B62">
         <v>0</v>
       </c>
       <c r="D62" t="s">
-        <v>142</v>
+        <v>32</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>66</v>
+        <v>94</v>
       </c>
       <c r="B63">
         <v>0</v>
       </c>
       <c r="D63" t="s">
-        <v>142</v>
+        <v>32</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>67</v>
+        <v>95</v>
       </c>
       <c r="B64">
         <v>0</v>
       </c>
       <c r="D64" t="s">
-        <v>142</v>
+        <v>32</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>68</v>
+        <v>96</v>
       </c>
       <c r="B65">
         <v>0</v>
       </c>
       <c r="D65" t="s">
-        <v>142</v>
+        <v>32</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>69</v>
+        <v>97</v>
       </c>
       <c r="B66">
         <v>0</v>
       </c>
       <c r="D66" t="s">
-        <v>142</v>
+        <v>32</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>70</v>
+        <v>98</v>
       </c>
       <c r="B67">
         <v>0</v>
       </c>
       <c r="D67" t="s">
-        <v>142</v>
+        <v>32</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>71</v>
+        <v>99</v>
       </c>
       <c r="B68">
         <v>0</v>
       </c>
       <c r="D68" t="s">
-        <v>142</v>
+        <v>32</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>72</v>
+        <v>100</v>
       </c>
       <c r="B69">
         <v>0</v>
       </c>
       <c r="D69" t="s">
-        <v>142</v>
+        <v>32</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>73</v>
+        <v>143</v>
       </c>
       <c r="B70">
         <v>0</v>
       </c>
       <c r="D70" t="s">
-        <v>142</v>
+        <v>32</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>74</v>
+        <v>144</v>
       </c>
       <c r="B71">
         <v>0</v>
       </c>
       <c r="D71" t="s">
-        <v>142</v>
+        <v>32</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>75</v>
+        <v>145</v>
       </c>
       <c r="B72">
         <v>0</v>
       </c>
       <c r="D72" t="s">
-        <v>142</v>
+        <v>32</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>76</v>
+        <v>146</v>
       </c>
       <c r="B73">
         <v>0</v>
       </c>
       <c r="D73" t="s">
-        <v>142</v>
+        <v>32</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>77</v>
+        <v>147</v>
       </c>
       <c r="B74">
         <v>0</v>
       </c>
       <c r="D74" t="s">
-        <v>142</v>
+        <v>32</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>78</v>
+        <v>148</v>
       </c>
       <c r="B75">
         <v>0</v>
       </c>
       <c r="D75" t="s">
-        <v>142</v>
+        <v>32</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>79</v>
+        <v>149</v>
       </c>
       <c r="B76">
         <v>0</v>
       </c>
       <c r="D76" t="s">
-        <v>142</v>
+        <v>32</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="B77">
         <v>0</v>
       </c>
       <c r="D77" t="s">
-        <v>142</v>
+        <v>32</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="B78">
         <v>0</v>
       </c>
       <c r="D78" t="s">
-        <v>142</v>
+        <v>32</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="B79">
         <v>0</v>
       </c>
       <c r="D79" t="s">
-        <v>142</v>
+        <v>32</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>83</v>
+        <v>103</v>
       </c>
       <c r="B80">
         <v>0</v>
       </c>
       <c r="D80" t="s">
-        <v>142</v>
+        <v>32</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>84</v>
+        <v>104</v>
       </c>
       <c r="B81">
         <v>0</v>
       </c>
       <c r="D81" t="s">
-        <v>142</v>
+        <v>32</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>85</v>
+        <v>105</v>
       </c>
       <c r="B82">
         <v>0</v>
       </c>
       <c r="D82" t="s">
-        <v>142</v>
+        <v>32</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>86</v>
+        <v>106</v>
       </c>
       <c r="B83">
         <v>0</v>
       </c>
       <c r="D83" t="s">
-        <v>142</v>
+        <v>32</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>87</v>
+        <v>107</v>
       </c>
       <c r="B84">
         <v>0</v>
       </c>
       <c r="D84" t="s">
-        <v>142</v>
+        <v>32</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>88</v>
+        <v>108</v>
       </c>
       <c r="B85">
         <v>0</v>
       </c>
       <c r="D85" t="s">
-        <v>142</v>
+        <v>32</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>89</v>
+        <v>109</v>
       </c>
       <c r="B86">
         <v>0</v>
       </c>
       <c r="D86" t="s">
-        <v>142</v>
+        <v>32</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="B87">
         <v>0</v>
       </c>
       <c r="D87" t="s">
-        <v>142</v>
+        <v>32</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="B88">
         <v>0</v>
       </c>
       <c r="D88" t="s">
-        <v>142</v>
+        <v>32</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>92</v>
+        <v>112</v>
       </c>
       <c r="B89">
         <v>0</v>
       </c>
       <c r="D89" t="s">
-        <v>142</v>
+        <v>32</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>93</v>
+        <v>113</v>
       </c>
       <c r="B90">
         <v>0</v>
       </c>
       <c r="D90" t="s">
-        <v>142</v>
+        <v>32</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>94</v>
+        <v>114</v>
       </c>
       <c r="B91">
         <v>0</v>
       </c>
       <c r="D91" t="s">
-        <v>142</v>
+        <v>32</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>95</v>
+        <v>115</v>
       </c>
       <c r="B92">
         <v>0</v>
       </c>
       <c r="D92" t="s">
-        <v>142</v>
+        <v>32</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>96</v>
+        <v>116</v>
       </c>
       <c r="B93">
         <v>0</v>
       </c>
       <c r="D93" t="s">
-        <v>142</v>
+        <v>32</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>97</v>
+        <v>117</v>
       </c>
       <c r="B94">
         <v>0</v>
       </c>
       <c r="D94" t="s">
-        <v>142</v>
+        <v>32</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>98</v>
+        <v>118</v>
       </c>
       <c r="B95">
         <v>0</v>
       </c>
       <c r="D95" t="s">
-        <v>142</v>
+        <v>32</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>99</v>
+        <v>119</v>
       </c>
       <c r="B96">
         <v>0</v>
       </c>
       <c r="D96" t="s">
-        <v>142</v>
+        <v>32</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="B97">
         <v>0</v>
       </c>
       <c r="D97" t="s">
-        <v>142</v>
+        <v>32</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="B98">
         <v>0</v>
       </c>
       <c r="D98" t="s">
-        <v>142</v>
+        <v>32</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>102</v>
+        <v>122</v>
       </c>
       <c r="B99">
         <v>0</v>
       </c>
       <c r="D99" t="s">
-        <v>142</v>
+        <v>32</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>103</v>
+        <v>123</v>
       </c>
       <c r="B100">
         <v>0</v>
       </c>
       <c r="D100" t="s">
-        <v>142</v>
+        <v>32</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>104</v>
+        <v>124</v>
       </c>
       <c r="B101">
         <v>0</v>
       </c>
       <c r="D101" t="s">
-        <v>142</v>
+        <v>32</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>105</v>
+        <v>125</v>
       </c>
       <c r="B102">
         <v>0</v>
       </c>
       <c r="D102" t="s">
-        <v>142</v>
+        <v>32</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>106</v>
+        <v>126</v>
       </c>
       <c r="B103">
         <v>0</v>
       </c>
       <c r="D103" t="s">
-        <v>142</v>
+        <v>32</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="B104">
         <v>0</v>
       </c>
       <c r="D104" t="s">
-        <v>142</v>
+        <v>32</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>108</v>
+        <v>128</v>
       </c>
       <c r="B105">
         <v>0</v>
       </c>
       <c r="D105" t="s">
-        <v>142</v>
+        <v>32</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>109</v>
+        <v>129</v>
       </c>
       <c r="B106">
         <v>0</v>
       </c>
       <c r="D106" t="s">
-        <v>142</v>
+        <v>32</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="B107">
         <v>0</v>
       </c>
       <c r="D107" t="s">
-        <v>142</v>
+        <v>32</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>111</v>
+        <v>131</v>
       </c>
       <c r="B108">
         <v>0</v>
       </c>
       <c r="D108" t="s">
-        <v>142</v>
+        <v>32</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>112</v>
+        <v>132</v>
       </c>
       <c r="B109">
         <v>0</v>
       </c>
       <c r="D109" t="s">
-        <v>142</v>
+        <v>32</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>113</v>
+        <v>133</v>
       </c>
       <c r="B110">
         <v>0</v>
       </c>
       <c r="D110" t="s">
-        <v>142</v>
+        <v>32</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>114</v>
+        <v>134</v>
       </c>
       <c r="B111">
         <v>0</v>
       </c>
       <c r="D111" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>135</v>
+      </c>
+      <c r="B112">
+        <v>0</v>
+      </c>
+      <c r="D112" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>136</v>
+      </c>
+      <c r="B113">
+        <v>0</v>
+      </c>
+      <c r="D113" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>137</v>
+      </c>
+      <c r="B114">
+        <v>0</v>
+      </c>
+      <c r="D114" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>138</v>
+      </c>
+      <c r="B115">
+        <v>0</v>
+      </c>
+      <c r="D115" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>139</v>
+      </c>
+      <c r="B116">
+        <v>0</v>
+      </c>
+      <c r="D116" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>140</v>
+      </c>
+      <c r="B117">
+        <v>0</v>
+      </c>
+      <c r="D117" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>141</v>
+      </c>
+      <c r="B118">
+        <v>0</v>
+      </c>
+      <c r="D118" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
         <v>142</v>
       </c>
+      <c r="B119">
+        <v>0</v>
+      </c>
+      <c r="D119" t="s">
+        <v>32</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/mysite/DB4_Column.xlsx
+++ b/mysite/DB4_Column.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22508"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SCG\PycharmProjects\django-wms-skk\mysite\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VSC\django-wms-skk\mysite\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA33EF66-B5CA-46F7-AF28-0050839B2D5E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0F1BFDF-2E26-4DC1-A3D6-3F99A94FCF2E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1125" yWindow="1125" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dataset" sheetId="3" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="157">
   <si>
     <t>column_id</t>
   </si>
@@ -47,18 +47,6 @@
     <t>storage_for</t>
   </si>
   <si>
-    <t>Super Cement SKK</t>
-  </si>
-  <si>
-    <t>ช้างไฮบริด SKK</t>
-  </si>
-  <si>
-    <t>ช้างโครงสร้าง SKK</t>
-  </si>
-  <si>
-    <t>เสือฉาบ SKK</t>
-  </si>
-  <si>
     <t>แรด SKK</t>
   </si>
   <si>
@@ -68,66 +56,6 @@
     <t>ช้างงานหล่อ SKK</t>
   </si>
   <si>
-    <t>Super Cement KCL</t>
-  </si>
-  <si>
-    <t>เสือฉาบ KCL</t>
-  </si>
-  <si>
-    <t>ช้างโครงสร้าง KCL</t>
-  </si>
-  <si>
-    <t>SMC ฉาบอิฐมวลเบา KK1</t>
-  </si>
-  <si>
-    <t>SMC ฉาบทั่วไป KK1</t>
-  </si>
-  <si>
-    <t>SMC ฉาบอิฐมวลเบา สูตร Xpert  KK1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SMC DURA ONE อิฐมวลเบา KK1 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SMC ก่อทั่วไป KK2  </t>
-  </si>
-  <si>
-    <t>SMC เทปรับพื้น KK2</t>
-  </si>
-  <si>
-    <t>SMC EASY KK2</t>
-  </si>
-  <si>
-    <t>SMC ฉาบทั่วไป KK2</t>
-  </si>
-  <si>
-    <t>SMC ฉาบอิฐมวลเบา KK2</t>
-  </si>
-  <si>
-    <t>SMC ฉาบทั่วไป BB</t>
-  </si>
-  <si>
-    <t>SMC ฉาบอิฐมวลเบา BB</t>
-  </si>
-  <si>
-    <t>SMC ก่อทั่วไป BB</t>
-  </si>
-  <si>
-    <t>SMC DURA ONE อิฐมวลเบา NR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SMC ฉาบทั่วไป NR </t>
-  </si>
-  <si>
-    <t>SMC ฉาบอิฐมวลเบา NR</t>
-  </si>
-  <si>
-    <t>SMC DURA แดง NR</t>
-  </si>
-  <si>
-    <t>SMC DURA เขียว NR</t>
-  </si>
-  <si>
     <t>Buffer1</t>
   </si>
   <si>
@@ -483,6 +411,96 @@
   </si>
   <si>
     <t>A76</t>
+  </si>
+  <si>
+    <t>ซูเปอร์ซีเมนต์ SKK</t>
+  </si>
+  <si>
+    <t>ช้างงานโครงสร้าง สูตรไฮบริด SKK</t>
+  </si>
+  <si>
+    <t>ช้างงานโครงสร้าง SKK</t>
+  </si>
+  <si>
+    <t>เสือฉาบสูตรพิเศษ SKK</t>
+  </si>
+  <si>
+    <t>ซูเปอร์ซีเมนต์ KCL</t>
+  </si>
+  <si>
+    <t>เสือฉาบสูตรพิเศษ KCL</t>
+  </si>
+  <si>
+    <t>SMC KK1 ฉาบอิฐมวลเบา</t>
+  </si>
+  <si>
+    <t>SMC KK1 ฉาบทั่วไป</t>
+  </si>
+  <si>
+    <t>SMC KK1 ฉาบอิฐมวลเบา สูตรเอ็กซ์เพิร์ท</t>
+  </si>
+  <si>
+    <t>SMC KK2 อีซี่</t>
+  </si>
+  <si>
+    <t>SMC KK2 ฉาบทั่วไป</t>
+  </si>
+  <si>
+    <t>SMC KK2 ฉาบอิฐมวลเบา</t>
+  </si>
+  <si>
+    <t>SMC BB ฉาบทั่วไป</t>
+  </si>
+  <si>
+    <t>SMC BB ฉาบอิฐมวลเบา</t>
+  </si>
+  <si>
+    <t>SMC NR ฉาบทั่วไป</t>
+  </si>
+  <si>
+    <t>SMC NR ฉาบอิฐมวลเบา</t>
+  </si>
+  <si>
+    <t>DURA ONE SKK (เขียว) ก่อ ฉาบ เท</t>
+  </si>
+  <si>
+    <t>ช้างงานโครงสร้าง KCL</t>
+  </si>
+  <si>
+    <t>SMC KK2 DURA ONE ฉาบอิฐมวลเบา</t>
+  </si>
+  <si>
+    <t>SMC KK2 ก่อทั่วไป</t>
+  </si>
+  <si>
+    <t>SMC KK2 เทปรับพื้น</t>
+  </si>
+  <si>
+    <t>SMC BB ก่อทั่วไป</t>
+  </si>
+  <si>
+    <t>SMC NR DURA ONE ฉาบอิฐมวลเบา</t>
+  </si>
+  <si>
+    <t>DURA ONE SKK (แดง) งานโครงสร้าง</t>
+  </si>
+  <si>
+    <t>B43</t>
+  </si>
+  <si>
+    <t>B44</t>
+  </si>
+  <si>
+    <t>SMC LP ฉาบทั่วไป</t>
+  </si>
+  <si>
+    <t>SMC LP ฉาบอิฐมวลเบา</t>
+  </si>
+  <si>
+    <t>SMC KK1 ฉาบทั่วไป สูตรเอ็กซ์เพิร์ท</t>
+  </si>
+  <si>
+    <t>Montania C-150 (42.63 kg)</t>
   </si>
 </sst>
 </file>
@@ -518,7 +536,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -526,35 +544,16 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF999999"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF999999"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF999999"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -857,10 +856,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF62E362-70C7-4EA7-AF77-8AB7762B3C3F}">
-  <dimension ref="A1:E119"/>
+  <dimension ref="A1:E121"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:H1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="D110" sqref="D110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -891,1300 +890,1247 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>5</v>
+        <v>127</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>5</v>
+        <v>127</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>5</v>
+        <v>127</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>5</v>
+        <v>127</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>5</v>
+        <v>127</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>5</v>
+        <v>127</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>5</v>
+        <v>127</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>6</v>
+        <v>128</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>7</v>
+        <v>129</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="B11">
         <v>1</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>7</v>
+        <v>129</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="B12">
         <v>1</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>7</v>
+        <v>129</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="B13">
         <v>1</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>7</v>
+        <v>129</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="B14">
         <v>1</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>7</v>
+        <v>129</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="B15">
         <v>1</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>7</v>
+        <v>129</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="B16">
         <v>1</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>8</v>
+        <v>130</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="B17">
         <v>1</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>8</v>
+        <v>130</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="B18">
         <v>1</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>8</v>
+        <v>130</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="B19">
         <v>1</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>8</v>
+        <v>130</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="B20">
         <v>1</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>8</v>
+        <v>130</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="B21">
         <v>1</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="B22">
         <v>1</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="B23">
         <v>1</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="B24">
         <v>1</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="B25">
         <v>1</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="B26">
         <v>1</v>
       </c>
-      <c r="C26" s="3" t="s">
-        <v>12</v>
+      <c r="C26" s="2" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="B27">
         <v>1</v>
       </c>
-      <c r="C27" s="3" t="s">
-        <v>12</v>
+      <c r="C27" s="2" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>59</v>
+        <v>35</v>
       </c>
       <c r="B28">
         <v>1</v>
       </c>
-      <c r="C28" s="3" t="s">
-        <v>12</v>
+      <c r="C28" s="2" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="B29">
         <v>1</v>
       </c>
-      <c r="C29" s="3" t="s">
-        <v>12</v>
+      <c r="C29" s="2" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="B30">
         <v>1</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>13</v>
+        <v>132</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="B31">
         <v>1</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>13</v>
+        <v>132</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>63</v>
+        <v>39</v>
       </c>
       <c r="B32">
         <v>1</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>13</v>
+        <v>132</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="B33">
         <v>1</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>13</v>
+        <v>132</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="B34">
         <v>1</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>14</v>
+        <v>144</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="B35">
         <v>1</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>14</v>
+        <v>144</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="B36">
         <v>1</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>14</v>
+        <v>144</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="B37">
         <v>1</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>14</v>
+        <v>144</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>69</v>
+        <v>45</v>
       </c>
       <c r="B38">
         <v>1</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>15</v>
+        <v>133</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="B39">
         <v>1</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>15</v>
+        <v>133</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>71</v>
+        <v>47</v>
       </c>
       <c r="B40">
         <v>1</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>16</v>
+        <v>134</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="B41">
         <v>1</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>16</v>
+        <v>134</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>73</v>
+        <v>49</v>
       </c>
       <c r="B42">
         <v>1</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>17</v>
+        <v>135</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>74</v>
+        <v>50</v>
       </c>
       <c r="B43">
         <v>1</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>17</v>
+        <v>135</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="B44">
         <v>1</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>18</v>
+        <v>145</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="B45">
         <v>1</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>19</v>
+        <v>146</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>77</v>
+        <v>53</v>
       </c>
       <c r="B46">
         <v>1</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>20</v>
+        <v>147</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>78</v>
+        <v>54</v>
       </c>
       <c r="B47">
         <v>1</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>21</v>
+        <v>136</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>79</v>
+        <v>55</v>
       </c>
       <c r="B48">
         <v>1</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>22</v>
+        <v>137</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>80</v>
+        <v>56</v>
       </c>
       <c r="B49">
         <v>1</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>22</v>
+        <v>137</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>81</v>
+        <v>57</v>
       </c>
       <c r="B50">
         <v>1</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>23</v>
+        <v>138</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>82</v>
+        <v>58</v>
       </c>
       <c r="B51">
         <v>1</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>23</v>
+        <v>138</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="B52">
         <v>1</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>24</v>
+        <v>139</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="B53">
         <v>1</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>24</v>
+        <v>139</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>85</v>
+        <v>61</v>
       </c>
       <c r="B54">
         <v>1</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>25</v>
+        <v>140</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>86</v>
+        <v>62</v>
       </c>
       <c r="B55">
         <v>1</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>25</v>
+        <v>140</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>87</v>
+        <v>63</v>
       </c>
       <c r="B56">
         <v>1</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>26</v>
+        <v>148</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>88</v>
+        <v>64</v>
       </c>
       <c r="B57">
         <v>1</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>27</v>
+        <v>149</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>89</v>
+        <v>65</v>
       </c>
       <c r="B58">
         <v>1</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>28</v>
+        <v>141</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>90</v>
+        <v>66</v>
       </c>
       <c r="B59">
         <v>1</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>29</v>
+        <v>142</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>91</v>
+        <v>67</v>
       </c>
       <c r="B60">
         <v>1</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>30</v>
+        <v>143</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>92</v>
+        <v>68</v>
       </c>
       <c r="B61">
         <v>1</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>31</v>
+        <v>150</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>93</v>
+        <v>69</v>
       </c>
       <c r="B62">
         <v>0</v>
       </c>
       <c r="D62" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>94</v>
+        <v>70</v>
       </c>
       <c r="B63">
         <v>0</v>
       </c>
       <c r="D63" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>95</v>
+        <v>71</v>
       </c>
       <c r="B64">
         <v>0</v>
       </c>
       <c r="D64" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>96</v>
+        <v>72</v>
       </c>
       <c r="B65">
         <v>0</v>
       </c>
       <c r="D65" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>97</v>
+        <v>73</v>
       </c>
       <c r="B66">
         <v>0</v>
       </c>
       <c r="D66" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="B67">
         <v>0</v>
       </c>
       <c r="D67" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>99</v>
+        <v>75</v>
       </c>
       <c r="B68">
         <v>0</v>
       </c>
       <c r="D68" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="B69">
         <v>0</v>
       </c>
       <c r="D69" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>143</v>
+        <v>119</v>
       </c>
       <c r="B70">
         <v>0</v>
       </c>
       <c r="D70" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>144</v>
+        <v>120</v>
       </c>
       <c r="B71">
         <v>0</v>
       </c>
       <c r="D71" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>145</v>
+        <v>121</v>
       </c>
       <c r="B72">
         <v>0</v>
       </c>
       <c r="D72" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>146</v>
+        <v>122</v>
       </c>
       <c r="B73">
         <v>0</v>
       </c>
       <c r="D73" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>147</v>
+        <v>123</v>
       </c>
       <c r="B74">
         <v>0</v>
       </c>
       <c r="D74" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>148</v>
+        <v>124</v>
       </c>
       <c r="B75">
         <v>0</v>
       </c>
       <c r="D75" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>149</v>
+        <v>125</v>
       </c>
       <c r="B76">
         <v>0</v>
       </c>
       <c r="D76" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>150</v>
+        <v>126</v>
       </c>
       <c r="B77">
         <v>0</v>
       </c>
       <c r="D77" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="B78">
-        <v>0</v>
-      </c>
-      <c r="D78" t="s">
-        <v>32</v>
+        <v>1</v>
+      </c>
+      <c r="C78" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>102</v>
+        <v>78</v>
       </c>
       <c r="B79">
-        <v>0</v>
-      </c>
-      <c r="D79" t="s">
-        <v>32</v>
+        <v>1</v>
+      </c>
+      <c r="C79" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>103</v>
+        <v>79</v>
       </c>
       <c r="B80">
-        <v>0</v>
-      </c>
-      <c r="D80" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="C80" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="B81">
-        <v>0</v>
-      </c>
-      <c r="D81" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="C81" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>105</v>
+        <v>81</v>
       </c>
       <c r="B82">
-        <v>0</v>
-      </c>
-      <c r="D82" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="C82" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>106</v>
+        <v>82</v>
       </c>
       <c r="B83">
-        <v>0</v>
-      </c>
-      <c r="D83" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="C83" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>107</v>
+        <v>83</v>
       </c>
       <c r="B84">
-        <v>0</v>
-      </c>
-      <c r="D84" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="C84" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="B85">
-        <v>0</v>
-      </c>
-      <c r="D85" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>109</v>
+        <v>85</v>
       </c>
       <c r="B86">
-        <v>0</v>
-      </c>
-      <c r="D86" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>110</v>
+        <v>86</v>
       </c>
       <c r="B87">
-        <v>0</v>
-      </c>
-      <c r="D87" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>111</v>
+        <v>87</v>
       </c>
       <c r="B88">
-        <v>0</v>
-      </c>
-      <c r="D88" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>112</v>
+        <v>88</v>
       </c>
       <c r="B89">
-        <v>0</v>
-      </c>
-      <c r="D89" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>113</v>
+        <v>89</v>
       </c>
       <c r="B90">
-        <v>0</v>
-      </c>
-      <c r="D90" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>114</v>
+        <v>90</v>
       </c>
       <c r="B91">
-        <v>0</v>
-      </c>
-      <c r="D91" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>115</v>
+        <v>91</v>
       </c>
       <c r="B92">
-        <v>0</v>
-      </c>
-      <c r="D92" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>116</v>
+        <v>92</v>
       </c>
       <c r="B93">
-        <v>0</v>
-      </c>
-      <c r="D93" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>117</v>
+        <v>93</v>
       </c>
       <c r="B94">
-        <v>0</v>
-      </c>
-      <c r="D94" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>118</v>
+        <v>94</v>
       </c>
       <c r="B95">
-        <v>0</v>
-      </c>
-      <c r="D95" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>119</v>
+        <v>95</v>
       </c>
       <c r="B96">
-        <v>0</v>
-      </c>
-      <c r="D96" t="s">
-        <v>32</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>120</v>
+        <v>96</v>
       </c>
       <c r="B97">
-        <v>0</v>
-      </c>
-      <c r="D97" t="s">
-        <v>32</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>121</v>
+        <v>97</v>
       </c>
       <c r="B98">
-        <v>0</v>
-      </c>
-      <c r="D98" t="s">
-        <v>32</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>122</v>
+        <v>98</v>
       </c>
       <c r="B99">
-        <v>0</v>
-      </c>
-      <c r="D99" t="s">
-        <v>32</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>123</v>
+        <v>99</v>
       </c>
       <c r="B100">
-        <v>0</v>
-      </c>
-      <c r="D100" t="s">
-        <v>32</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>124</v>
+        <v>100</v>
       </c>
       <c r="B101">
-        <v>0</v>
-      </c>
-      <c r="D101" t="s">
-        <v>32</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>125</v>
+        <v>101</v>
       </c>
       <c r="B102">
-        <v>0</v>
-      </c>
-      <c r="D102" t="s">
-        <v>32</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>126</v>
+        <v>102</v>
       </c>
       <c r="B103">
-        <v>0</v>
-      </c>
-      <c r="D103" t="s">
-        <v>32</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>127</v>
+        <v>103</v>
       </c>
       <c r="B104">
-        <v>0</v>
-      </c>
-      <c r="D104" t="s">
-        <v>32</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>128</v>
+        <v>104</v>
       </c>
       <c r="B105">
-        <v>0</v>
-      </c>
-      <c r="D105" t="s">
-        <v>32</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>129</v>
+        <v>105</v>
       </c>
       <c r="B106">
-        <v>0</v>
-      </c>
-      <c r="D106" t="s">
-        <v>32</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>130</v>
+        <v>106</v>
       </c>
       <c r="B107">
-        <v>0</v>
-      </c>
-      <c r="D107" t="s">
-        <v>32</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>131</v>
+        <v>107</v>
       </c>
       <c r="B108">
-        <v>0</v>
-      </c>
-      <c r="D108" t="s">
-        <v>32</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>132</v>
+        <v>108</v>
       </c>
       <c r="B109">
-        <v>0</v>
-      </c>
-      <c r="D109" t="s">
-        <v>32</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>133</v>
+        <v>109</v>
       </c>
       <c r="B110">
         <v>0</v>
       </c>
       <c r="D110" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>134</v>
+        <v>110</v>
       </c>
       <c r="B111">
         <v>0</v>
       </c>
       <c r="D111" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>135</v>
+        <v>111</v>
       </c>
       <c r="B112">
         <v>0</v>
       </c>
       <c r="D112" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>136</v>
+        <v>112</v>
       </c>
       <c r="B113">
         <v>0</v>
       </c>
       <c r="D113" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>137</v>
+        <v>113</v>
       </c>
       <c r="B114">
         <v>0</v>
       </c>
       <c r="D114" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>138</v>
+        <v>114</v>
       </c>
       <c r="B115">
         <v>0</v>
       </c>
       <c r="D115" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>139</v>
+        <v>115</v>
       </c>
       <c r="B116">
         <v>0</v>
       </c>
       <c r="D116" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>140</v>
+        <v>116</v>
       </c>
       <c r="B117">
         <v>0</v>
       </c>
       <c r="D117" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>141</v>
+        <v>117</v>
       </c>
       <c r="B118">
         <v>0</v>
       </c>
       <c r="D118" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>142</v>
+        <v>118</v>
       </c>
       <c r="B119">
         <v>0</v>
       </c>
       <c r="D119" t="s">
-        <v>32</v>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>151</v>
+      </c>
+      <c r="B120">
+        <v>0</v>
+      </c>
+      <c r="D120" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>152</v>
+      </c>
+      <c r="B121">
+        <v>0</v>
+      </c>
+      <c r="D121" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/mysite/DB4_Column.xlsx
+++ b/mysite/DB4_Column.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22508"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22718"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VSC\django-wms-skk\mysite\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0F1BFDF-2E26-4DC1-A3D6-3F99A94FCF2E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{906AB552-1E11-4D7D-A0C4-302E931D0A7D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1125" yWindow="1125" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dataset" sheetId="3" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="157">
   <si>
     <t>column_id</t>
   </si>
@@ -485,12 +485,6 @@
     <t>DURA ONE SKK (แดง) งานโครงสร้าง</t>
   </si>
   <si>
-    <t>B43</t>
-  </si>
-  <si>
-    <t>B44</t>
-  </si>
-  <si>
     <t>SMC LP ฉาบทั่วไป</t>
   </si>
   <si>
@@ -501,6 +495,12 @@
   </si>
   <si>
     <t>Montania C-150 (42.63 kg)</t>
+  </si>
+  <si>
+    <t>Made to Order (6000 B)</t>
+  </si>
+  <si>
+    <t>Made to Order (5000 B)</t>
   </si>
 </sst>
 </file>
@@ -856,10 +856,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF62E362-70C7-4EA7-AF77-8AB7762B3C3F}">
-  <dimension ref="A1:E121"/>
+  <dimension ref="A1:E119"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="D110" sqref="D110"/>
+      <selection activeCell="A121" sqref="A120:XFD121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1732,7 +1732,7 @@
         <v>1</v>
       </c>
       <c r="C78" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
@@ -1743,7 +1743,7 @@
         <v>1</v>
       </c>
       <c r="C79" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
@@ -1754,7 +1754,7 @@
         <v>1</v>
       </c>
       <c r="C80" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
@@ -1765,7 +1765,7 @@
         <v>1</v>
       </c>
       <c r="C81" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
@@ -1776,7 +1776,7 @@
         <v>1</v>
       </c>
       <c r="C82" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
@@ -1787,7 +1787,7 @@
         <v>1</v>
       </c>
       <c r="C83" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
@@ -1808,6 +1808,9 @@
       <c r="B85">
         <v>1</v>
       </c>
+      <c r="C85" s="2" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
@@ -1816,6 +1819,9 @@
       <c r="B86">
         <v>1</v>
       </c>
+      <c r="C86" s="2" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
@@ -1824,6 +1830,9 @@
       <c r="B87">
         <v>1</v>
       </c>
+      <c r="C87" s="2" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
@@ -1832,6 +1841,9 @@
       <c r="B88">
         <v>1</v>
       </c>
+      <c r="C88" s="2" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
@@ -1840,6 +1852,9 @@
       <c r="B89">
         <v>1</v>
       </c>
+      <c r="C89" s="2" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
@@ -1848,6 +1863,9 @@
       <c r="B90">
         <v>1</v>
       </c>
+      <c r="C90" s="2" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
@@ -1856,6 +1874,9 @@
       <c r="B91">
         <v>1</v>
       </c>
+      <c r="C91" s="2" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
@@ -1864,6 +1885,9 @@
       <c r="B92">
         <v>1</v>
       </c>
+      <c r="C92" s="2" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
@@ -1872,6 +1896,9 @@
       <c r="B93">
         <v>1</v>
       </c>
+      <c r="C93" s="2" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
@@ -1880,6 +1907,9 @@
       <c r="B94">
         <v>1</v>
       </c>
+      <c r="C94" s="2" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
@@ -1888,6 +1918,9 @@
       <c r="B95">
         <v>1</v>
       </c>
+      <c r="C95" s="2" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
@@ -1896,6 +1929,9 @@
       <c r="B96">
         <v>1</v>
       </c>
+      <c r="C96" s="2" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
@@ -1904,6 +1940,9 @@
       <c r="B97">
         <v>1</v>
       </c>
+      <c r="C97" s="2" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
@@ -1912,6 +1951,9 @@
       <c r="B98">
         <v>1</v>
       </c>
+      <c r="C98" s="2" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
@@ -1920,6 +1962,9 @@
       <c r="B99">
         <v>1</v>
       </c>
+      <c r="C99" s="2" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
@@ -1928,6 +1973,9 @@
       <c r="B100">
         <v>1</v>
       </c>
+      <c r="C100" s="2" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
@@ -1936,6 +1984,9 @@
       <c r="B101">
         <v>1</v>
       </c>
+      <c r="C101" s="2" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
@@ -1944,6 +1995,9 @@
       <c r="B102">
         <v>1</v>
       </c>
+      <c r="C102" s="2" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
@@ -1952,6 +2006,9 @@
       <c r="B103">
         <v>1</v>
       </c>
+      <c r="C103" s="2" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
@@ -1960,6 +2017,9 @@
       <c r="B104">
         <v>1</v>
       </c>
+      <c r="C104" s="2" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
@@ -1968,6 +2028,9 @@
       <c r="B105">
         <v>1</v>
       </c>
+      <c r="C105" s="2" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
@@ -1976,6 +2039,9 @@
       <c r="B106">
         <v>1</v>
       </c>
+      <c r="C106" s="2" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
@@ -1984,6 +2050,9 @@
       <c r="B107">
         <v>1</v>
       </c>
+      <c r="C107" s="2" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
@@ -1992,6 +2061,9 @@
       <c r="B108">
         <v>1</v>
       </c>
+      <c r="C108" s="2" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
@@ -2000,6 +2072,9 @@
       <c r="B109">
         <v>1</v>
       </c>
+      <c r="C109" s="2" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
@@ -2108,28 +2183,6 @@
         <v>0</v>
       </c>
       <c r="D119" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
-        <v>151</v>
-      </c>
-      <c r="B120">
-        <v>0</v>
-      </c>
-      <c r="D120" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
-        <v>152</v>
-      </c>
-      <c r="B121">
-        <v>0</v>
-      </c>
-      <c r="D121" t="s">
         <v>8</v>
       </c>
     </row>
